--- a/biology/Botanique/Oryzeae/Oryzeae.xlsx
+++ b/biology/Botanique/Oryzeae/Oryzeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oryzeae sont une tribu de plantes monocotylédones de la famille des Poaceae. 
-Cette tribu est subdivisée en deux sous-tribus (Oryzinae et Zizaniinae) qui regroupent 11 genres[2], parmi lesquels figurent notamment le  riz cultivé (Oryza) et le riz sauvage (Zizania).
+Cette tribu est subdivisée en deux sous-tribus (Oryzinae et Zizaniinae) qui regroupent 11 genres, parmi lesquels figurent notamment le  riz cultivé (Oryza) et le riz sauvage (Zizania).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-tribus, genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 juin 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 juin 2016) :
 sous-tribu Oryzinae
 genre Leersia
 Leersia hexandra
@@ -614,9 +628,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (12 juin 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 Chikusichloinae Honda
 Chikusichloinae Ohwi
 Hygroryzinae S.L. Chen</t>
